--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nodal</t>
+  </si>
+  <si>
+    <t>Acvr2b</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nodal</t>
-  </si>
-  <si>
-    <t>Acvr2b</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H2">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I2">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J2">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N2">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O2">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P2">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q2">
-        <v>1.960162069761</v>
+        <v>1.166178235702</v>
       </c>
       <c r="R2">
-        <v>7.840648279044</v>
+        <v>4.664712942807999</v>
       </c>
       <c r="S2">
-        <v>0.1138016296984174</v>
+        <v>0.1931139633774422</v>
       </c>
       <c r="T2">
-        <v>0.07471123041200953</v>
+        <v>0.1437332545169163</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H3">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I3">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J3">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P3">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q3">
-        <v>0.155360119533</v>
+        <v>0.1142053257553333</v>
       </c>
       <c r="R3">
-        <v>0.9321607171980001</v>
+        <v>0.6852319545319999</v>
       </c>
       <c r="S3">
-        <v>0.009019782121971198</v>
+        <v>0.01891189735859557</v>
       </c>
       <c r="T3">
-        <v>0.008882285194419574</v>
+        <v>0.0211139720989099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H4">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I4">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J4">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N4">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O4">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P4">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q4">
-        <v>0.419131213782</v>
+        <v>0.217106808762</v>
       </c>
       <c r="R4">
-        <v>2.514787282692</v>
+        <v>1.302640852572</v>
       </c>
       <c r="S4">
-        <v>0.02433360787951739</v>
+        <v>0.03595192830109711</v>
       </c>
       <c r="T4">
-        <v>0.02396266806362875</v>
+        <v>0.04013812028788129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H5">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I5">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J5">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N5">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O5">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P5">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q5">
-        <v>1.8416890097865</v>
+        <v>1.222944375016</v>
       </c>
       <c r="R5">
-        <v>7.366756039146001</v>
+        <v>4.891777500063999</v>
       </c>
       <c r="S5">
-        <v>0.1069234090102167</v>
+        <v>0.2025141852414385</v>
       </c>
       <c r="T5">
-        <v>0.07019565069647615</v>
+        <v>0.1507297681716668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H6">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I6">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J6">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N6">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O6">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P6">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q6">
-        <v>1.221261522921</v>
+        <v>0.03043682560533333</v>
       </c>
       <c r="R6">
-        <v>7.327569137526002</v>
+        <v>0.182620953632</v>
       </c>
       <c r="S6">
-        <v>0.07090309201489996</v>
+        <v>0.005040203843056387</v>
       </c>
       <c r="T6">
-        <v>0.06982225024132636</v>
+        <v>0.005627078092550192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H7">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I7">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J7">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N7">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O7">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P7">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q7">
-        <v>1.017800382615</v>
+        <v>0.250282808714</v>
       </c>
       <c r="R7">
-        <v>6.106802295690001</v>
+        <v>1.501696852284</v>
       </c>
       <c r="S7">
-        <v>0.05909069665008998</v>
+        <v>0.04144572731363305</v>
       </c>
       <c r="T7">
-        <v>0.0581899222049422</v>
+        <v>0.04627160953373856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.289202</v>
       </c>
       <c r="I8">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J8">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N8">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O8">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P8">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q8">
-        <v>0.825863230934</v>
+        <v>0.668396660782</v>
       </c>
       <c r="R8">
-        <v>4.955179385604001</v>
+        <v>4.010379964692</v>
       </c>
       <c r="S8">
-        <v>0.04794735243486731</v>
+        <v>0.1106835338889342</v>
       </c>
       <c r="T8">
-        <v>0.04721644634923467</v>
+        <v>0.1235713689656601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.289202</v>
       </c>
       <c r="I9">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J9">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P9">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q9">
         <v>0.06545693963533333</v>
@@ -1013,10 +1013,10 @@
         <v>0.5891124567180001</v>
       </c>
       <c r="S9">
-        <v>0.003800250255061881</v>
+        <v>0.01083937999917137</v>
       </c>
       <c r="T9">
-        <v>0.00561347925911682</v>
+        <v>0.0181522532508855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1.289202</v>
       </c>
       <c r="I10">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J10">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N10">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O10">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P10">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q10">
-        <v>0.1765900196413334</v>
+        <v>0.124435066242</v>
       </c>
       <c r="R10">
-        <v>1.589310176772</v>
+        <v>1.119915596178</v>
       </c>
       <c r="S10">
-        <v>0.01025233185239095</v>
+        <v>0.02060589718574353</v>
       </c>
       <c r="T10">
-        <v>0.01514406903448578</v>
+        <v>0.03450782832652048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.289202</v>
       </c>
       <c r="I11">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J11">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N11">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O11">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P11">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q11">
-        <v>0.7759476930310001</v>
+        <v>0.700932251656</v>
       </c>
       <c r="R11">
-        <v>4.655686158186001</v>
+        <v>4.205593509936</v>
       </c>
       <c r="S11">
-        <v>0.04504939330777986</v>
+        <v>0.1160712839876341</v>
       </c>
       <c r="T11">
-        <v>0.04436266350830985</v>
+        <v>0.1295864611112477</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>1.289202</v>
       </c>
       <c r="I12">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J12">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N12">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O12">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P12">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q12">
-        <v>0.5145467319740001</v>
+        <v>0.01744490848533333</v>
       </c>
       <c r="R12">
-        <v>4.630920587766002</v>
+        <v>0.157004176368</v>
       </c>
       <c r="S12">
-        <v>0.02987317097803839</v>
+        <v>0.0028887997693865</v>
       </c>
       <c r="T12">
-        <v>0.04412667967482013</v>
+        <v>0.00483775132978197</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.289202</v>
       </c>
       <c r="I13">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J13">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N13">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O13">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P13">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q13">
-        <v>0.4288236801433334</v>
+        <v>0.143449936274</v>
       </c>
       <c r="R13">
-        <v>3.85941312129</v>
+        <v>1.291049426466</v>
       </c>
       <c r="S13">
-        <v>0.02489632587346944</v>
+        <v>0.02375467565079183</v>
       </c>
       <c r="T13">
-        <v>0.03677521203578171</v>
+        <v>0.03978095503052576</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H14">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I14">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J14">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N14">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O14">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P14">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q14">
-        <v>0.1677552904906666</v>
+        <v>0.151463778113</v>
       </c>
       <c r="R14">
-        <v>1.006531742944</v>
+        <v>0.605855112452</v>
       </c>
       <c r="S14">
-        <v>0.00973941172665228</v>
+        <v>0.02508173245225722</v>
       </c>
       <c r="T14">
-        <v>0.009590944815759502</v>
+        <v>0.01866814274449611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H15">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I15">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J15">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.456959</v>
       </c>
       <c r="O15">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P15">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q15">
-        <v>0.01329608524977778</v>
+        <v>0.01483304145966667</v>
       </c>
       <c r="R15">
-        <v>0.119664767248</v>
+        <v>0.088998248758</v>
       </c>
       <c r="S15">
-        <v>0.0007719342157346675</v>
+        <v>0.002456286129790305</v>
       </c>
       <c r="T15">
-        <v>0.001140250356843567</v>
+        <v>0.002742292633465477</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H16">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I16">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J16">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N16">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O16">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P16">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q16">
-        <v>0.03587023726577778</v>
+        <v>0.028197934503</v>
       </c>
       <c r="R16">
-        <v>0.322832135392</v>
+        <v>0.169187607018</v>
       </c>
       <c r="S16">
-        <v>0.002082527522334997</v>
+        <v>0.004669453368467216</v>
       </c>
       <c r="T16">
-        <v>0.003076172427748995</v>
+        <v>0.005213157953935676</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H17">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I17">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J17">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N17">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O17">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P17">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q17">
-        <v>0.1576160867493333</v>
+        <v>0.158836591004</v>
       </c>
       <c r="R17">
-        <v>0.9456965204959999</v>
+        <v>0.635346364016</v>
       </c>
       <c r="S17">
-        <v>0.009150757386580945</v>
+        <v>0.02630263769215328</v>
       </c>
       <c r="T17">
-        <v>0.00901126388125997</v>
+        <v>0.01957685323087369</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.097381</v>
+      </c>
+      <c r="H18">
+        <v>0.194762</v>
+      </c>
+      <c r="I18">
+        <v>0.06454772425983209</v>
+      </c>
+      <c r="J18">
+        <v>0.05294107253771223</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G18">
-        <v>0.08729066666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.261872</v>
-      </c>
-      <c r="I18">
-        <v>0.0328698057110208</v>
-      </c>
-      <c r="J18">
-        <v>0.03925200669049219</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N18">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O18">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P18">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q18">
-        <v>0.1045184399306667</v>
+        <v>0.003953149234666667</v>
       </c>
       <c r="R18">
-        <v>0.9406659593760002</v>
+        <v>0.023718895408</v>
       </c>
       <c r="S18">
-        <v>0.006068053749808696</v>
+        <v>0.0006546240473004853</v>
       </c>
       <c r="T18">
-        <v>0.008963329144544063</v>
+        <v>0.0007308475510362192</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H19">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I19">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J19">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N19">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O19">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P19">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q19">
-        <v>0.08710575593777778</v>
+        <v>0.032506848991</v>
       </c>
       <c r="R19">
-        <v>0.7839518034399999</v>
+        <v>0.195041093946</v>
       </c>
       <c r="S19">
-        <v>0.005057121109909223</v>
+        <v>0.005382990569863586</v>
       </c>
       <c r="T19">
-        <v>0.007470046064336098</v>
+        <v>0.006009778423905063</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H20">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I20">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J20">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N20">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O20">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P20">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q20">
-        <v>0.529319727629</v>
+        <v>0.2223136105513333</v>
       </c>
       <c r="R20">
-        <v>2.117278910516</v>
+        <v>1.333881663308</v>
       </c>
       <c r="S20">
-        <v>0.03073085055821291</v>
+        <v>0.03681415167251309</v>
       </c>
       <c r="T20">
-        <v>0.02017492774836427</v>
+        <v>0.04110073973647038</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H21">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I21">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J21">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.456959</v>
       </c>
       <c r="O21">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P21">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q21">
-        <v>0.04195325347033334</v>
+        <v>0.02177145614244445</v>
       </c>
       <c r="R21">
-        <v>0.2517195208220001</v>
+        <v>0.195943105282</v>
       </c>
       <c r="S21">
-        <v>0.002435690747070138</v>
+        <v>0.003605256945680106</v>
       </c>
       <c r="T21">
-        <v>0.002398561247747501</v>
+        <v>0.006037571993739691</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H22">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I22">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J22">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N22">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O22">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P22">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q22">
-        <v>0.1131816717313334</v>
+        <v>0.04138801175800001</v>
       </c>
       <c r="R22">
-        <v>0.6790900303880001</v>
+        <v>0.372492105822</v>
       </c>
       <c r="S22">
-        <v>0.00657101721011646</v>
+        <v>0.006853671884974157</v>
       </c>
       <c r="T22">
-        <v>0.006470849083540646</v>
+        <v>0.0114775557055879</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H23">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I23">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J23">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N23">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O23">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P23">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q23">
-        <v>0.4973274098485</v>
+        <v>0.2331351856773334</v>
       </c>
       <c r="R23">
-        <v>1.989309639394</v>
+        <v>1.398811114064</v>
       </c>
       <c r="S23">
-        <v>0.02887346439743772</v>
+        <v>0.03860615670106742</v>
       </c>
       <c r="T23">
-        <v>0.01895554621762962</v>
+        <v>0.0431014033111807</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H24">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I24">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J24">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N24">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O24">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P24">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q24">
-        <v>0.3297879428690001</v>
+        <v>0.005802303959111112</v>
       </c>
       <c r="R24">
-        <v>1.978727657214001</v>
+        <v>0.05222073563200001</v>
       </c>
       <c r="S24">
-        <v>0.01914658279147132</v>
+        <v>0.0009608358996599388</v>
       </c>
       <c r="T24">
-        <v>0.01885471362308782</v>
+        <v>0.001609071421474563</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H25">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I25">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J25">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N25">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O25">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P25">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q25">
-        <v>0.2748455495683333</v>
+        <v>0.04771249639266668</v>
       </c>
       <c r="R25">
-        <v>1.64907329741</v>
+        <v>0.429412467534</v>
       </c>
       <c r="S25">
-        <v>0.01595677823724401</v>
+        <v>0.00790097859738678</v>
       </c>
       <c r="T25">
-        <v>0.01571353422629397</v>
+        <v>0.01323143615599369</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H26">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I26">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J26">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N26">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O26">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P26">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q26">
-        <v>1.154040859899667</v>
+        <v>0.138187114185</v>
       </c>
       <c r="R26">
-        <v>6.924245159398</v>
+        <v>0.82912268511</v>
       </c>
       <c r="S26">
-        <v>0.06700044482095203</v>
+        <v>0.02288317556526214</v>
       </c>
       <c r="T26">
-        <v>0.06597909472813407</v>
+        <v>0.02554766035676504</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H27">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I27">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J27">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.456959</v>
       </c>
       <c r="O27">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P27">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q27">
-        <v>0.09146790906011111</v>
+        <v>0.013532840785</v>
       </c>
       <c r="R27">
-        <v>0.823211181541</v>
+        <v>0.121795567065</v>
       </c>
       <c r="S27">
-        <v>0.005310375747356677</v>
+        <v>0.002240978642663555</v>
       </c>
       <c r="T27">
-        <v>0.007844137126547811</v>
+        <v>0.003752872567855748</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.08884500000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.266535</v>
+      </c>
+      <c r="I28">
+        <v>0.058889748121962</v>
+      </c>
+      <c r="J28">
+        <v>0.07245072842155623</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.6004996666666667</v>
-      </c>
-      <c r="H28">
-        <v>1.801499</v>
-      </c>
-      <c r="I28">
-        <v>0.2261216247578903</v>
-      </c>
-      <c r="J28">
-        <v>0.270026771861501</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N28">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O28">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P28">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q28">
-        <v>0.2467625273571111</v>
+        <v>0.025726224735</v>
       </c>
       <c r="R28">
-        <v>2.220862746214</v>
+        <v>0.231536022615</v>
       </c>
       <c r="S28">
-        <v>0.01432635504734746</v>
+        <v>0.00426014915149228</v>
       </c>
       <c r="T28">
-        <v>0.02116194764013482</v>
+        <v>0.007134292394061705</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H29">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I29">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J29">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N29">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O29">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P29">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q29">
-        <v>1.084290121367833</v>
+        <v>0.14491365798</v>
       </c>
       <c r="R29">
-        <v>6.505740728207</v>
+        <v>0.8694819478800001</v>
       </c>
       <c r="S29">
-        <v>0.06295090838718223</v>
+        <v>0.02399706149823228</v>
       </c>
       <c r="T29">
-        <v>0.06199128914441388</v>
+        <v>0.02679124560176482</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H30">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I30">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J30">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N30">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O30">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P30">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q30">
-        <v>0.7190148813796667</v>
+        <v>0.00360663316</v>
       </c>
       <c r="R30">
-        <v>6.471133932417001</v>
+        <v>0.03245969844</v>
       </c>
       <c r="S30">
-        <v>0.04174403052722939</v>
+        <v>0.0005972425163267127</v>
       </c>
       <c r="T30">
-        <v>0.06166153117006393</v>
+        <v>0.001000176892902305</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H31">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I31">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J31">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N31">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O31">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P31">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q31">
-        <v>0.5992276082061111</v>
+        <v>0.029657438295</v>
       </c>
       <c r="R31">
-        <v>5.393048473855</v>
+        <v>0.266916944655</v>
       </c>
       <c r="S31">
-        <v>0.03478951022782258</v>
+        <v>0.004911140747985031</v>
       </c>
       <c r="T31">
-        <v>0.05138877205220648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.728204</v>
-      </c>
-      <c r="I32">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J32">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.921801</v>
-      </c>
-      <c r="N32">
-        <v>3.843602</v>
-      </c>
-      <c r="O32">
-        <v>0.2963026861879742</v>
-      </c>
-      <c r="P32">
-        <v>0.2443427896918877</v>
-      </c>
-      <c r="Q32">
-        <v>0.4664877251346666</v>
-      </c>
-      <c r="R32">
-        <v>2.798926350808</v>
-      </c>
-      <c r="S32">
-        <v>0.02708299694887233</v>
-      </c>
-      <c r="T32">
-        <v>0.02667014563838567</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.728204</v>
-      </c>
-      <c r="I33">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J33">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.1523196666666667</v>
-      </c>
-      <c r="N33">
-        <v>0.456959</v>
-      </c>
-      <c r="O33">
-        <v>0.02348459928608122</v>
-      </c>
-      <c r="P33">
-        <v>0.02904947932559493</v>
-      </c>
-      <c r="Q33">
-        <v>0.03697326351511111</v>
-      </c>
-      <c r="R33">
-        <v>0.332759371636</v>
-      </c>
-      <c r="S33">
-        <v>0.002146566198886661</v>
-      </c>
-      <c r="T33">
-        <v>0.003170766140919658</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.728204</v>
-      </c>
-      <c r="I34">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J34">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.4109286666666667</v>
-      </c>
-      <c r="N34">
-        <v>1.232786</v>
-      </c>
-      <c r="O34">
-        <v>0.06335685524410488</v>
-      </c>
-      <c r="P34">
-        <v>0.07836981309019599</v>
-      </c>
-      <c r="Q34">
-        <v>0.09974663292711111</v>
-      </c>
-      <c r="R34">
-        <v>0.897719696344</v>
-      </c>
-      <c r="S34">
-        <v>0.005791015732397637</v>
-      </c>
-      <c r="T34">
-        <v>0.008554106840656998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.728204</v>
-      </c>
-      <c r="I35">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J35">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.8056465</v>
-      </c>
-      <c r="N35">
-        <v>3.611293</v>
-      </c>
-      <c r="O35">
-        <v>0.2783940211582334</v>
-      </c>
-      <c r="P35">
-        <v>0.2295746037219218</v>
-      </c>
-      <c r="Q35">
-        <v>0.4382930012953333</v>
-      </c>
-      <c r="R35">
-        <v>2.629758007772</v>
-      </c>
-      <c r="S35">
-        <v>0.02544608866903598</v>
-      </c>
-      <c r="T35">
-        <v>0.02505819027383238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.728204</v>
-      </c>
-      <c r="I36">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J36">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.197361</v>
-      </c>
-      <c r="N36">
-        <v>3.592083000000001</v>
-      </c>
-      <c r="O36">
-        <v>0.1846087501446399</v>
-      </c>
-      <c r="P36">
-        <v>0.2283533989796044</v>
-      </c>
-      <c r="Q36">
-        <v>0.2906410232146667</v>
-      </c>
-      <c r="R36">
-        <v>2.615769208932</v>
-      </c>
-      <c r="S36">
-        <v>0.01687382008319213</v>
-      </c>
-      <c r="T36">
-        <v>0.02492489512576207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.728204</v>
-      </c>
-      <c r="I37">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J37">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.9978816666666667</v>
-      </c>
-      <c r="N37">
-        <v>2.993645</v>
-      </c>
-      <c r="O37">
-        <v>0.1538530879789666</v>
-      </c>
-      <c r="P37">
-        <v>0.1903099151907953</v>
-      </c>
-      <c r="Q37">
-        <v>0.2422204737311111</v>
-      </c>
-      <c r="R37">
-        <v>2.17998426358</v>
-      </c>
-      <c r="S37">
-        <v>0.01406265588043142</v>
-      </c>
-      <c r="T37">
-        <v>0.02077242860723484</v>
+        <v>0.008224480608206613</v>
       </c>
     </row>
   </sheetData>
